--- a/TelerikWebApp1/DanhSachKhaiThue_Import-8.xlsx
+++ b/TelerikWebApp1/DanhSachKhaiThue_Import-8.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách khai thuế" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="265">
   <si>
     <t>Mã số thuế</t>
   </si>
@@ -821,11 +816,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_*#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +832,12 @@
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000066"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -920,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -950,6 +951,7 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1029,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1064,7 +1066,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1275,22 +1277,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
     <col min="7" max="7" width="24" style="6" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -1360,7 +1362,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>38</v>
       </c>
@@ -1387,7 +1389,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>40</v>
       </c>
@@ -1414,7 +1416,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>42</v>
       </c>
@@ -1441,7 +1443,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>44</v>
       </c>
@@ -1468,7 +1470,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>46</v>
       </c>
@@ -1495,7 +1497,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>48</v>
       </c>
@@ -1522,7 +1524,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>50</v>
       </c>
@@ -1549,7 +1551,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1578,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1605,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>56</v>
       </c>
@@ -1630,7 +1632,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1657,7 +1659,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1686,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>61</v>
       </c>
@@ -1711,7 +1713,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>62</v>
       </c>
@@ -1738,7 +1740,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>63</v>
       </c>
@@ -1765,7 +1767,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
@@ -1792,7 +1794,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>66</v>
       </c>
@@ -1819,7 +1821,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>68</v>
       </c>
@@ -1846,7 +1848,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>70</v>
       </c>
@@ -1873,7 +1875,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>71</v>
       </c>
@@ -1900,7 +1902,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>72</v>
       </c>
@@ -1927,7 +1929,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>73</v>
       </c>
@@ -1954,7 +1956,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>75</v>
       </c>
@@ -1981,7 +1983,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>76</v>
       </c>
@@ -2008,7 +2010,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>77</v>
       </c>
@@ -2035,7 +2037,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>78</v>
       </c>
@@ -2062,7 +2064,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>79</v>
       </c>
@@ -2089,7 +2091,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>80</v>
       </c>
@@ -2116,7 +2118,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>82</v>
       </c>
@@ -2143,7 +2145,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>83</v>
       </c>
@@ -2170,7 +2172,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>84</v>
       </c>
@@ -2197,7 +2199,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>85</v>
       </c>
@@ -2224,7 +2226,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>87</v>
       </c>
@@ -2251,7 +2253,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>88</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>89</v>
       </c>
@@ -2305,7 +2307,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>90</v>
       </c>
@@ -2332,7 +2334,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>91</v>
       </c>
@@ -2359,7 +2361,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>92</v>
       </c>
@@ -2386,7 +2388,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>94</v>
       </c>
@@ -2413,7 +2415,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>95</v>
       </c>
@@ -2440,7 +2442,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>97</v>
       </c>
@@ -2467,7 +2469,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>98</v>
       </c>
@@ -2494,7 +2496,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>100</v>
       </c>
@@ -2521,7 +2523,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>101</v>
       </c>
@@ -2548,7 +2550,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>102</v>
       </c>
@@ -2575,7 +2577,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>103</v>
       </c>
@@ -2602,7 +2604,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>105</v>
       </c>
@@ -2629,7 +2631,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>106</v>
       </c>
@@ -2656,7 +2658,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>108</v>
       </c>
@@ -2683,7 +2685,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>110</v>
       </c>
@@ -2710,7 +2712,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>111</v>
       </c>
@@ -2737,7 +2739,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>112</v>
       </c>
@@ -2764,7 +2766,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>113</v>
       </c>
@@ -2791,7 +2793,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>114</v>
       </c>
@@ -2818,7 +2820,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>115</v>
       </c>
@@ -2845,7 +2847,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>116</v>
       </c>
@@ -2872,7 +2874,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>118</v>
       </c>
@@ -2899,7 +2901,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>119</v>
       </c>
@@ -2926,7 +2928,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>120</v>
       </c>
@@ -2953,7 +2955,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>121</v>
       </c>
@@ -2980,7 +2982,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>122</v>
       </c>
@@ -3007,7 +3009,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>123</v>
       </c>
@@ -3034,7 +3036,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>124</v>
       </c>
@@ -3061,7 +3063,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>126</v>
       </c>
@@ -3088,7 +3090,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>127</v>
       </c>
@@ -3115,7 +3117,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>128</v>
       </c>
@@ -3142,7 +3144,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>129</v>
       </c>
@@ -3169,7 +3171,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>130</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>131</v>
       </c>
@@ -3223,7 +3225,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>132</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>133</v>
       </c>
@@ -3277,7 +3279,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>134</v>
       </c>
@@ -3304,7 +3306,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>136</v>
       </c>
@@ -3331,7 +3333,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>137</v>
       </c>
@@ -3358,7 +3360,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>138</v>
       </c>
@@ -3385,7 +3387,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>139</v>
       </c>
@@ -3412,7 +3414,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>140</v>
       </c>
@@ -3439,7 +3441,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>141</v>
       </c>
@@ -3466,7 +3468,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>142</v>
       </c>
@@ -3493,7 +3495,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>143</v>
       </c>
@@ -3520,7 +3522,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>144</v>
       </c>
@@ -3547,7 +3549,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>145</v>
       </c>
@@ -3574,7 +3576,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>147</v>
       </c>
@@ -3601,7 +3603,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>148</v>
       </c>
@@ -3628,7 +3630,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>149</v>
       </c>
@@ -3655,7 +3657,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>150</v>
       </c>
@@ -3682,7 +3684,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>151</v>
       </c>
@@ -3709,7 +3711,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>152</v>
       </c>
@@ -3736,7 +3738,7 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
     </row>
-    <row r="91" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>153</v>
       </c>
@@ -3763,7 +3765,7 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
     </row>
-    <row r="92" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>154</v>
       </c>
@@ -3790,7 +3792,7 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
     </row>
-    <row r="93" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>155</v>
       </c>
@@ -3817,7 +3819,7 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
     </row>
-    <row r="94" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>156</v>
       </c>
@@ -3844,7 +3846,7 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
     </row>
-    <row r="95" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>157</v>
       </c>
@@ -3871,7 +3873,7 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
     </row>
-    <row r="96" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>158</v>
       </c>
@@ -3898,7 +3900,7 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
     </row>
-    <row r="97" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>160</v>
       </c>
@@ -3925,7 +3927,7 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>161</v>
       </c>
@@ -3952,7 +3954,7 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
     </row>
-    <row r="99" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>162</v>
       </c>
@@ -3979,7 +3981,7 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
     </row>
-    <row r="100" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>163</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
     </row>
-    <row r="101" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>164</v>
       </c>
@@ -4033,7 +4035,7 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>165</v>
       </c>
@@ -4060,7 +4062,7 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
     </row>
-    <row r="103" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>166</v>
       </c>
@@ -4087,7 +4089,7 @@
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
     </row>
-    <row r="104" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>167</v>
       </c>
@@ -4114,7 +4116,7 @@
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>168</v>
       </c>
@@ -4141,7 +4143,7 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>169</v>
       </c>
@@ -4168,7 +4170,7 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>170</v>
       </c>
@@ -4195,7 +4197,7 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>171</v>
       </c>
@@ -4222,7 +4224,7 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>172</v>
       </c>
@@ -4249,7 +4251,7 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>173</v>
       </c>
@@ -4276,7 +4278,7 @@
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>174</v>
       </c>
@@ -4303,7 +4305,7 @@
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>175</v>
       </c>
@@ -4330,7 +4332,7 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>176</v>
       </c>
@@ -4357,7 +4359,7 @@
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>177</v>
       </c>
@@ -4384,7 +4386,7 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>178</v>
       </c>
@@ -4411,7 +4413,7 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>179</v>
       </c>
@@ -4438,7 +4440,7 @@
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>180</v>
       </c>
@@ -4465,7 +4467,7 @@
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>181</v>
       </c>
@@ -4492,7 +4494,7 @@
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>182</v>
       </c>
@@ -4519,7 +4521,7 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>183</v>
       </c>
@@ -4546,7 +4548,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>184</v>
       </c>
@@ -4573,7 +4575,7 @@
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>186</v>
       </c>
@@ -4600,7 +4602,7 @@
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>187</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>188</v>
       </c>
@@ -4654,7 +4656,7 @@
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>189</v>
       </c>
@@ -4681,7 +4683,7 @@
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>191</v>
       </c>
@@ -4708,7 +4710,7 @@
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>192</v>
       </c>
@@ -4735,7 +4737,7 @@
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>193</v>
       </c>
@@ -4762,7 +4764,7 @@
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>194</v>
       </c>
@@ -4789,7 +4791,7 @@
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="66" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>196</v>
       </c>
@@ -4816,7 +4818,7 @@
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="11" t="s">
         <v>198</v>
       </c>
@@ -4843,7 +4845,7 @@
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A132" s="11" t="s">
         <v>199</v>
       </c>
@@ -4870,7 +4872,7 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A133" s="11" t="s">
         <v>200</v>
       </c>
@@ -4897,7 +4899,7 @@
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>201</v>
       </c>
@@ -4924,7 +4926,7 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>202</v>
       </c>
@@ -4951,7 +4953,7 @@
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A136" s="11" t="s">
         <v>203</v>
       </c>
@@ -4978,7 +4980,7 @@
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A137" s="11" t="s">
         <v>204</v>
       </c>
@@ -5005,7 +5007,7 @@
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
         <v>205</v>
       </c>
@@ -5032,7 +5034,7 @@
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>206</v>
       </c>
@@ -5059,7 +5061,7 @@
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>207</v>
       </c>
@@ -5086,7 +5088,7 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="11" t="s">
         <v>208</v>
       </c>
@@ -5113,7 +5115,7 @@
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>209</v>
       </c>
@@ -5140,7 +5142,7 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A143" s="11" t="s">
         <v>210</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>211</v>
       </c>
@@ -5194,7 +5196,7 @@
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A145" s="11" t="s">
         <v>212</v>
       </c>
@@ -5221,7 +5223,7 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A146" s="11" t="s">
         <v>213</v>
       </c>
@@ -5248,7 +5250,7 @@
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A147" s="11" t="s">
         <v>214</v>
       </c>
@@ -5275,7 +5277,7 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A148" s="11" t="s">
         <v>215</v>
       </c>
@@ -5302,7 +5304,7 @@
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A149" s="11" t="s">
         <v>216</v>
       </c>
@@ -5329,7 +5331,7 @@
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A150" s="11" t="s">
         <v>217</v>
       </c>
@@ -5356,7 +5358,7 @@
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A151" s="11" t="s">
         <v>218</v>
       </c>
@@ -5383,7 +5385,7 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>219</v>
       </c>
@@ -5410,7 +5412,7 @@
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A153" s="11" t="s">
         <v>220</v>
       </c>
@@ -5437,7 +5439,7 @@
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A154" s="11" t="s">
         <v>221</v>
       </c>
@@ -5464,7 +5466,7 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A155" s="11" t="s">
         <v>222</v>
       </c>
@@ -5491,7 +5493,7 @@
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A156" s="11" t="s">
         <v>224</v>
       </c>
@@ -5518,7 +5520,7 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A157" s="11" t="s">
         <v>225</v>
       </c>
@@ -5545,7 +5547,7 @@
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A158" s="11" t="s">
         <v>226</v>
       </c>
@@ -5572,7 +5574,7 @@
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>227</v>
       </c>
@@ -5599,7 +5601,7 @@
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A160" s="11" t="s">
         <v>228</v>
       </c>
@@ -5626,7 +5628,7 @@
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>229</v>
       </c>
@@ -5653,7 +5655,7 @@
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A162" s="11" t="s">
         <v>231</v>
       </c>
@@ -5680,7 +5682,7 @@
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A163" s="11" t="s">
         <v>232</v>
       </c>
@@ -5707,7 +5709,7 @@
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="11" t="s">
         <v>233</v>
       </c>
@@ -5734,7 +5736,7 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A165" s="11" t="s">
         <v>235</v>
       </c>
@@ -5761,7 +5763,7 @@
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A166" s="11" t="s">
         <v>236</v>
       </c>
@@ -5788,7 +5790,7 @@
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A167" s="11" t="s">
         <v>237</v>
       </c>
@@ -5815,7 +5817,7 @@
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A168" s="11" t="s">
         <v>239</v>
       </c>
@@ -5842,7 +5844,7 @@
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="11" t="s">
         <v>241</v>
       </c>
@@ -5869,7 +5871,7 @@
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A170" s="11" t="s">
         <v>243</v>
       </c>
@@ -5896,7 +5898,7 @@
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A171" s="11" t="s">
         <v>244</v>
       </c>
@@ -5923,7 +5925,7 @@
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>245</v>
       </c>
@@ -5950,7 +5952,7 @@
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
     </row>
-    <row r="173" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>247</v>
       </c>
@@ -5977,7 +5979,7 @@
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
     </row>
-    <row r="174" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A174" s="11" t="s">
         <v>248</v>
       </c>
@@ -6004,7 +6006,7 @@
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
     </row>
-    <row r="175" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A175" s="11" t="s">
         <v>250</v>
       </c>
@@ -6031,7 +6033,7 @@
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
     </row>
-    <row r="176" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A176" s="11" t="s">
         <v>251</v>
       </c>
@@ -6058,7 +6060,7 @@
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
     </row>
-    <row r="177" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A177" s="11" t="s">
         <v>252</v>
       </c>
@@ -6085,7 +6087,7 @@
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
     </row>
-    <row r="178" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>253</v>
       </c>
@@ -6112,7 +6114,7 @@
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
     </row>
-    <row r="179" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="11" t="s">
         <v>254</v>
       </c>
@@ -6139,7 +6141,7 @@
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
     </row>
-    <row r="180" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A180" s="11" t="s">
         <v>256</v>
       </c>
@@ -6166,7 +6168,7 @@
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
     </row>
-    <row r="181" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
         <v>257</v>
       </c>
@@ -6193,7 +6195,7 @@
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
     </row>
-    <row r="182" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>258</v>
       </c>
@@ -6220,7 +6222,7 @@
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
     </row>
-    <row r="183" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A183" s="11" t="s">
         <v>259</v>
       </c>
@@ -6247,7 +6249,7 @@
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
     </row>
-    <row r="184" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A184" s="11" t="s">
         <v>260</v>
       </c>
@@ -6274,7 +6276,7 @@
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
     </row>
-    <row r="185" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A185" s="11" t="s">
         <v>262</v>
       </c>
@@ -6301,7 +6303,7 @@
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
     </row>
-    <row r="186" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
         <v>263</v>
       </c>
@@ -6328,20 +6330,34 @@
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A187" s="10"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="10"/>
+    <row r="187" spans="1:11" ht="33" x14ac:dyDescent="0.25">
+      <c r="A187" s="13">
+        <v>8426269905</v>
+      </c>
+      <c r="B187" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>264</v>
+      </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="10"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
+      <c r="F187" s="1">
+        <v>99</v>
+      </c>
+      <c r="G187" s="12">
+        <v>113800000</v>
+      </c>
+      <c r="H187" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="I187" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="1"/>
       <c r="C188" s="10"/>
@@ -6354,7 +6370,7 @@
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A189" s="10"/>
       <c r="B189" s="1"/>
       <c r="C189" s="10"/>
@@ -6367,7 +6383,7 @@
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A190" s="10"/>
       <c r="B190" s="1"/>
       <c r="C190" s="10"/>
@@ -6380,7 +6396,7 @@
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A191" s="10"/>
       <c r="B191" s="1"/>
       <c r="C191" s="10"/>
@@ -6393,7 +6409,7 @@
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A192" s="10"/>
       <c r="B192" s="1"/>
       <c r="C192" s="10"/>
@@ -6406,7 +6422,7 @@
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A193" s="10"/>
       <c r="B193" s="1"/>
       <c r="C193" s="10"/>
@@ -6419,7 +6435,7 @@
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A194" s="10"/>
       <c r="B194" s="1"/>
       <c r="C194" s="10"/>
@@ -6432,7 +6448,7 @@
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A195" s="10"/>
       <c r="B195" s="1"/>
       <c r="C195" s="10"/>
@@ -6445,7 +6461,7 @@
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A196" s="10"/>
       <c r="B196" s="1"/>
       <c r="C196" s="10"/>
@@ -6458,7 +6474,7 @@
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="10"/>
       <c r="B197" s="1"/>
       <c r="C197" s="10"/>
@@ -6471,7 +6487,7 @@
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="1"/>
       <c r="C198" s="10"/>
@@ -6484,7 +6500,7 @@
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="10"/>
       <c r="B199" s="1"/>
       <c r="C199" s="10"/>
@@ -6497,7 +6513,7 @@
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="10"/>
       <c r="B200" s="1"/>
       <c r="C200" s="10"/>
@@ -6510,7 +6526,7 @@
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="10"/>
       <c r="B201" s="1"/>
       <c r="C201" s="10"/>
@@ -6523,7 +6539,7 @@
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="1"/>
       <c r="C202" s="10"/>
@@ -6536,7 +6552,7 @@
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="10"/>
       <c r="B203" s="1"/>
       <c r="C203" s="10"/>
@@ -6549,7 +6565,7 @@
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="1"/>
       <c r="C204" s="10"/>
@@ -6562,7 +6578,7 @@
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="1"/>
       <c r="C205" s="10"/>
@@ -6575,7 +6591,7 @@
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="1"/>
       <c r="C206" s="10"/>
@@ -6588,7 +6604,7 @@
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="1"/>
       <c r="C207" s="10"/>
@@ -6601,7 +6617,7 @@
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="1"/>
       <c r="C208" s="10"/>
@@ -6614,7 +6630,7 @@
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="1"/>
       <c r="C209" s="10"/>
@@ -6627,7 +6643,7 @@
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="1"/>
       <c r="C210" s="10"/>
@@ -6640,7 +6656,7 @@
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="1"/>
       <c r="C211" s="10"/>
@@ -6653,7 +6669,7 @@
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="1"/>
       <c r="C212" s="10"/>
@@ -6666,7 +6682,7 @@
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="1"/>
       <c r="C213" s="10"/>
@@ -6679,7 +6695,7 @@
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="1"/>
       <c r="C214" s="10"/>
@@ -6692,7 +6708,7 @@
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="1"/>
       <c r="C215" s="10"/>
@@ -6705,7 +6721,7 @@
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="1"/>
       <c r="C216" s="10"/>
@@ -6718,7 +6734,7 @@
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="1"/>
       <c r="C217" s="10"/>
@@ -6731,7 +6747,7 @@
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="1"/>
       <c r="C218" s="10"/>
@@ -6744,7 +6760,7 @@
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="1"/>
       <c r="C219" s="10"/>
@@ -6757,7 +6773,7 @@
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="1"/>
       <c r="C220" s="10"/>
@@ -6770,7 +6786,7 @@
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="1"/>
       <c r="C221" s="10"/>
@@ -6783,7 +6799,7 @@
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="1"/>
       <c r="C222" s="10"/>
@@ -6796,7 +6812,7 @@
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="1"/>
       <c r="C223" s="10"/>
@@ -6809,7 +6825,7 @@
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="1"/>
       <c r="C224" s="10"/>
@@ -6822,7 +6838,7 @@
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="1"/>
       <c r="C225" s="10"/>
@@ -6835,7 +6851,7 @@
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="1"/>
       <c r="C226" s="10"/>
@@ -6848,7 +6864,7 @@
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="1"/>
       <c r="C227" s="10"/>
@@ -6861,7 +6877,7 @@
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="1"/>
       <c r="C228" s="10"/>
@@ -6874,7 +6890,7 @@
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="1"/>
       <c r="C229" s="10"/>
@@ -6887,7 +6903,7 @@
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="1"/>
       <c r="C230" s="10"/>
@@ -6900,7 +6916,7 @@
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="1"/>
       <c r="C231" s="10"/>
@@ -6913,7 +6929,7 @@
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="1"/>
       <c r="C232" s="10"/>
@@ -6926,7 +6942,7 @@
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="1"/>
       <c r="C233" s="10"/>
@@ -6939,7 +6955,7 @@
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="1"/>
       <c r="C234" s="10"/>
@@ -6952,7 +6968,7 @@
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="1"/>
       <c r="C235" s="10"/>
@@ -6965,7 +6981,7 @@
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="10"/>
       <c r="B236" s="1"/>
       <c r="C236" s="10"/>
@@ -6978,7 +6994,7 @@
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="1"/>
       <c r="C237" s="10"/>
@@ -6991,7 +7007,7 @@
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="1"/>
       <c r="C238" s="10"/>
@@ -7004,7 +7020,7 @@
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="1"/>
       <c r="C239" s="10"/>
@@ -7017,7 +7033,7 @@
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="1"/>
       <c r="C240" s="10"/>
@@ -7030,7 +7046,7 @@
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="1"/>
       <c r="C241" s="10"/>
@@ -7043,7 +7059,7 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="1"/>
       <c r="C242" s="10"/>
@@ -7056,7 +7072,7 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="1"/>
       <c r="C243" s="10"/>
@@ -7069,7 +7085,7 @@
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="1"/>
       <c r="C244" s="10"/>
@@ -7082,7 +7098,7 @@
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="1"/>
       <c r="C245" s="10"/>
@@ -7095,7 +7111,7 @@
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="1"/>
       <c r="C246" s="10"/>
@@ -7108,7 +7124,7 @@
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="1"/>
       <c r="C247" s="10"/>
@@ -7121,7 +7137,7 @@
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="1"/>
       <c r="C248" s="10"/>
@@ -7134,7 +7150,7 @@
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="1"/>
       <c r="C249" s="10"/>
@@ -7147,7 +7163,7 @@
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="1"/>
       <c r="C250" s="10"/>
@@ -7186,13 +7202,13 @@
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="72.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -7200,7 +7216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
@@ -7208,7 +7224,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>23</v>
       </c>
@@ -7216,7 +7232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
@@ -7224,7 +7240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>25</v>
       </c>
@@ -7232,7 +7248,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -7240,7 +7256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
@@ -7248,7 +7264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
@@ -7256,7 +7272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>99</v>
       </c>
@@ -7286,7 +7302,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
